--- a/REGULAR/MENDOZA, ANALUS.xlsx
+++ b/REGULAR/MENDOZA, ANALUS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
   <si>
     <t>PERIOD</t>
   </si>
@@ -403,6 +403,12 @@
   <si>
     <t>9/4-10/6/2017</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>07/27,28,31/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -638,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,6 +780,27 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,21 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2808,7 +2820,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K383" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K392" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3186,12 +3198,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K383"/>
+  <dimension ref="A2:K392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A365" activePane="bottomLeft"/>
-      <selection activeCell="D49" sqref="D49"/>
-      <selection pane="bottomLeft" activeCell="D373" sqref="D373"/>
+      <pane ySplit="4785" topLeftCell="A384" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K396" sqref="K396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,62 +3225,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3294,18 +3306,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3352,7 +3364,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>275.86399999999998</v>
+        <v>281.61399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3362,13 +3374,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>413.75</v>
+        <v>422.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="20"/>
@@ -3515,7 +3527,7 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="15"/>
@@ -3797,7 +3809,7 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="20"/>
@@ -3885,7 +3897,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="60">
+      <c r="K33" s="48">
         <v>35139</v>
       </c>
     </row>
@@ -4069,7 +4081,7 @@
         <f t="shared" si="0"/>
         <v>35370</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="49" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="13">
@@ -4115,7 +4127,7 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="20"/>
@@ -4332,7 +4344,7 @@
         <f t="shared" si="0"/>
         <v>35704</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="49" t="s">
         <v>86</v>
       </c>
       <c r="C54" s="13">
@@ -4354,7 +4366,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="51" t="s">
         <v>89</v>
       </c>
       <c r="C55" s="13"/>
@@ -4421,7 +4433,7 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="20"/>
@@ -4721,7 +4733,7 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B72" s="20"/>
@@ -4908,7 +4920,7 @@
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="60">
+      <c r="K80" s="48">
         <v>36375</v>
       </c>
     </row>
@@ -5001,7 +5013,7 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B85" s="20"/>
@@ -5281,7 +5293,7 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="59" t="s">
+      <c r="A98" s="47" t="s">
         <v>63</v>
       </c>
       <c r="B98" s="20"/>
@@ -5559,7 +5571,7 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="59" t="s">
+      <c r="A111" s="47" t="s">
         <v>64</v>
       </c>
       <c r="B111" s="20"/>
@@ -5833,7 +5845,7 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="59" t="s">
+      <c r="A124" s="47" t="s">
         <v>65</v>
       </c>
       <c r="B124" s="20"/>
@@ -6113,7 +6125,7 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="59" t="s">
+      <c r="A137" s="47" t="s">
         <v>66</v>
       </c>
       <c r="B137" s="20"/>
@@ -6411,32 +6423,32 @@
       <c r="D150" s="42">
         <v>3</v>
       </c>
-      <c r="E150" s="62"/>
+      <c r="E150" s="50"/>
       <c r="F150" s="15"/>
       <c r="G150" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H150" s="42"/>
-      <c r="I150" s="62"/>
+      <c r="I150" s="50"/>
       <c r="J150" s="12"/>
       <c r="K150" s="15"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="59" t="s">
+      <c r="A151" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B151" s="15"/>
       <c r="C151" s="13"/>
       <c r="D151" s="42"/>
-      <c r="E151" s="62"/>
+      <c r="E151" s="50"/>
       <c r="F151" s="15"/>
       <c r="G151" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H151" s="42"/>
-      <c r="I151" s="62"/>
+      <c r="I151" s="50"/>
       <c r="J151" s="12"/>
       <c r="K151" s="15"/>
     </row>
@@ -6452,14 +6464,14 @@
         <v>1.25</v>
       </c>
       <c r="D152" s="42"/>
-      <c r="E152" s="62"/>
+      <c r="E152" s="50"/>
       <c r="F152" s="15"/>
       <c r="G152" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H152" s="42"/>
-      <c r="I152" s="62"/>
+      <c r="I152" s="50"/>
       <c r="J152" s="12"/>
       <c r="K152" s="15" t="s">
         <v>109</v>
@@ -6509,7 +6521,7 @@
       <c r="H154" s="39"/>
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="60">
+      <c r="K154" s="48">
         <v>38429</v>
       </c>
     </row>
@@ -6707,7 +6719,7 @@
       <c r="K163" s="20"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="59" t="s">
+      <c r="A164" s="47" t="s">
         <v>68</v>
       </c>
       <c r="B164" s="20"/>
@@ -6981,7 +6993,7 @@
       <c r="K176" s="20"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="59" t="s">
+      <c r="A177" s="47" t="s">
         <v>69</v>
       </c>
       <c r="B177" s="20"/>
@@ -7255,7 +7267,7 @@
       <c r="K189" s="20"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="59" t="s">
+      <c r="A190" s="47" t="s">
         <v>70</v>
       </c>
       <c r="B190" s="20"/>
@@ -7529,7 +7541,7 @@
       <c r="K202" s="20"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="59" t="s">
+      <c r="A203" s="47" t="s">
         <v>71</v>
       </c>
       <c r="B203" s="20"/>
@@ -7803,7 +7815,7 @@
       <c r="K215" s="20"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="59" t="s">
+      <c r="A216" s="47" t="s">
         <v>72</v>
       </c>
       <c r="B216" s="20"/>
@@ -8077,7 +8089,7 @@
       <c r="K228" s="20"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="59" t="s">
+      <c r="A229" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B229" s="20"/>
@@ -8351,7 +8363,7 @@
       <c r="K241" s="20"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="59" t="s">
+      <c r="A242" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B242" s="20"/>
@@ -8631,7 +8643,7 @@
       <c r="K254" s="20"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="59" t="s">
+      <c r="A255" s="47" t="s">
         <v>75</v>
       </c>
       <c r="B255" s="20"/>
@@ -8905,7 +8917,7 @@
       <c r="K267" s="20"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="59" t="s">
+      <c r="A268" s="47" t="s">
         <v>76</v>
       </c>
       <c r="B268" s="20"/>
@@ -9189,7 +9201,7 @@
       <c r="K280" s="20"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="59" t="s">
+      <c r="A281" s="47" t="s">
         <v>77</v>
       </c>
       <c r="B281" s="20"/>
@@ -9467,7 +9479,7 @@
       <c r="K293" s="20"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="59" t="s">
+      <c r="A294" s="47" t="s">
         <v>78</v>
       </c>
       <c r="B294" s="20"/>
@@ -9747,7 +9759,7 @@
       <c r="K306" s="20"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="59" t="s">
+      <c r="A307" s="47" t="s">
         <v>79</v>
       </c>
       <c r="B307" s="20"/>
@@ -10029,7 +10041,7 @@
       <c r="K319" s="20"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="59" t="s">
+      <c r="A320" s="47" t="s">
         <v>80</v>
       </c>
       <c r="B320" s="20"/>
@@ -10303,7 +10315,7 @@
       <c r="K332" s="20"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="59" t="s">
+      <c r="A333" s="47" t="s">
         <v>81</v>
       </c>
       <c r="B333" s="20"/>
@@ -10581,7 +10593,7 @@
       <c r="K345" s="20"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A346" s="59" t="s">
+      <c r="A346" s="47" t="s">
         <v>82</v>
       </c>
       <c r="B346" s="20"/>
@@ -10855,7 +10867,7 @@
       <c r="K358" s="20"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="59" t="s">
+      <c r="A359" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B359" s="20"/>
@@ -11129,7 +11141,7 @@
       <c r="K371" s="20"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A372" s="59" t="s">
+      <c r="A372" s="47" t="s">
         <v>84</v>
       </c>
       <c r="B372" s="20"/>
@@ -11366,16 +11378,198 @@
         <v>1.25</v>
       </c>
       <c r="D383" s="42"/>
-      <c r="E383" s="62"/>
+      <c r="E383" s="50"/>
       <c r="F383" s="15"/>
       <c r="G383" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H383" s="42"/>
-      <c r="I383" s="62"/>
+      <c r="I383" s="50"/>
       <c r="J383" s="12"/>
       <c r="K383" s="15"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="52">
+        <v>44896</v>
+      </c>
+      <c r="B384" s="15"/>
+      <c r="C384" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D384" s="42"/>
+      <c r="E384" s="50"/>
+      <c r="F384" s="15"/>
+      <c r="G384" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H384" s="42"/>
+      <c r="I384" s="50"/>
+      <c r="J384" s="12"/>
+      <c r="K384" s="15"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B385" s="15"/>
+      <c r="C385" s="41"/>
+      <c r="D385" s="42"/>
+      <c r="E385" s="50"/>
+      <c r="F385" s="15"/>
+      <c r="G385" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H385" s="42"/>
+      <c r="I385" s="50"/>
+      <c r="J385" s="12"/>
+      <c r="K385" s="15"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B386" s="20"/>
+      <c r="C386" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D386" s="39"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H386" s="39"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="20"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B387" s="20"/>
+      <c r="C387" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D387" s="39"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H387" s="39"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="20"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B388" s="20"/>
+      <c r="C388" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D388" s="39"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H388" s="39"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="20"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B389" s="20"/>
+      <c r="C389" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D389" s="39"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H389" s="39"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B390" s="20"/>
+      <c r="C390" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D390" s="39"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H390" s="39"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="20"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="52">
+        <v>45078</v>
+      </c>
+      <c r="B391" s="15"/>
+      <c r="C391" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D391" s="42"/>
+      <c r="E391" s="50"/>
+      <c r="F391" s="15"/>
+      <c r="G391" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H391" s="42"/>
+      <c r="I391" s="50"/>
+      <c r="J391" s="12"/>
+      <c r="K391" s="15"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="52">
+        <v>45108</v>
+      </c>
+      <c r="B392" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C392" s="41"/>
+      <c r="D392" s="42">
+        <v>3</v>
+      </c>
+      <c r="E392" s="50"/>
+      <c r="F392" s="15"/>
+      <c r="G392" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H392" s="42"/>
+      <c r="I392" s="50"/>
+      <c r="J392" s="12"/>
+      <c r="K392" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11400,7 +11594,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -11441,17 +11635,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -11532,12 +11726,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/MENDOZA, ANALUS.xlsx
+++ b/REGULAR/MENDOZA, ANALUS.xlsx
@@ -1285,7 +1285,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1392,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1518,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1581,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1679,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1738,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1846,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1921,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2107,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2173,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2231,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2297,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2353,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,7 +2428,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2471,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2537,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2593,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2691,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2754,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2820,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K392" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K393" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3198,12 +3198,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K392"/>
+  <dimension ref="A2:K393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4785" topLeftCell="A384" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K396" sqref="K396"/>
+      <selection pane="bottomLeft" activeCell="A394" sqref="A394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,7 +3364,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>281.61399999999998</v>
+        <v>284.11399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3374,7 +3374,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>422.5</v>
+        <v>425</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11554,15 +11554,17 @@
       <c r="B392" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C392" s="41"/>
+      <c r="C392" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D392" s="42">
         <v>3</v>
       </c>
       <c r="E392" s="50"/>
       <c r="F392" s="15"/>
-      <c r="G392" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G392" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H392" s="42"/>
       <c r="I392" s="50"/>
@@ -11570,6 +11572,26 @@
       <c r="K392" s="15" t="s">
         <v>121</v>
       </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" s="52">
+        <v>45139</v>
+      </c>
+      <c r="B393" s="20"/>
+      <c r="C393" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D393" s="39"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H393" s="39"/>
+      <c r="I393" s="9"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11585,7 +11607,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
